--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/1. Soạn thảo và viết SDSPDS/Danh sách các SDS sản phẩm đã viết trong tháng.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/1. Soạn thảo và viết SDSPDS/Danh sách các SDS sản phẩm đã viết trong tháng.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KIMHƯỜNG\Báo cáo\KPI\FILE KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\1. Soạn thảo và viết SDSPDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05E90F2-1672-4B5F-91E9-6CA2E1011988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="1" xr2:uid="{F834F72C-34D2-4BAF-8227-5BD244907597}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THÁNG 10" sheetId="1" r:id="rId1"/>
     <sheet name="THÁNG 11" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="371">
   <si>
     <t>STT</t>
   </si>
@@ -1139,12 +1139,18 @@
   </si>
   <si>
     <t>Hồ sợi (không có PVA)</t>
+  </si>
+  <si>
+    <t>PVAC-79</t>
+  </si>
+  <si>
+    <t>SF-79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="14"/>
@@ -1157,7 +1163,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1165,7 +1171,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1178,13 +1184,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,12 +1218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1347,9 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,20 +1361,15 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1692,38 +1684,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D778F9A-4235-4364-8217-44175F1B68F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.640625" customWidth="1"/>
+    <col min="4" max="4" width="15.35546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="18.5">
+      <c r="A1" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" ht="45">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="43.5">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4528,63 +4520,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF2AD4-AAD7-40C3-8DB4-06802E8AEA54}">
-  <dimension ref="A1:I69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.35546875" customWidth="1"/>
+    <col min="2" max="2" width="25.640625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.640625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="18.5">
+      <c r="A1" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="90">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.5">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4788,19 +4780,19 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>44226</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="4">
         <v>44867</v>
       </c>
@@ -4815,17 +4807,17 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="10">
         <v>43770</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>44002</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="4">
         <v>44867</v>
       </c>
@@ -4916,19 +4908,19 @@
       <c r="B16" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31">
+      <c r="C16" s="2"/>
+      <c r="D16" s="6">
         <v>44663</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4">
         <v>44879</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="33" t="s">
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5055,24 +5047,24 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31">
+      <c r="C22" s="2"/>
+      <c r="D22" s="6">
         <v>44047</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="8">
         <v>44772</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32">
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
         <v>44869</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5106,20 +5098,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8">
-        <v>44310</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44326</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4">
-        <v>44870</v>
+        <v>44883</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>10</v>
@@ -5133,15 +5123,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E25" s="8">
+        <v>44310</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4">
         <v>44870</v>
@@ -5158,13 +5150,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="6">
-        <v>44535</v>
+        <v>295</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -5183,13 +5175,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44535</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -5208,13 +5200,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="6">
-        <v>44191</v>
+        <v>150</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5236,10 +5228,10 @@
         <v>301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>153</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44191</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5258,10 +5250,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>86</v>
@@ -5269,7 +5261,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4">
-        <v>44872</v>
+        <v>44870</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>10</v>
@@ -5283,13 +5275,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="6">
-        <v>43686</v>
+        <v>304</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5303,18 +5295,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="112.5">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>163</v>
+        <v>305</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="6">
+        <v>43686</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -5328,18 +5320,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="36">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>310</v>
+      <c r="B33" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -5358,13 +5350,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5382,17 +5374,17 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="4">
         <v>44872</v>
       </c>
@@ -5407,19 +5399,19 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="4">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>10</v>
@@ -5433,13 +5425,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5458,17 +5450,15 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E38" s="8">
-        <v>44202</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4">
         <v>44873</v>
@@ -5485,15 +5475,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="E39" s="8">
+        <v>44202</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4">
         <v>44873</v>
@@ -5510,13 +5502,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D40" s="6">
-        <v>44071</v>
+        <v>325</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5535,11 +5527,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="D41" s="6">
-        <v>44288</v>
+        <v>44071</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5557,24 +5551,22 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="D42" s="31">
-        <v>44728</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="32">
+      <c r="B42" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="6">
+        <v>44288</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4">
         <v>44873</v>
       </c>
-      <c r="H42" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="33" t="s">
+      <c r="H42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5582,24 +5574,24 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="D43" s="31">
-        <v>44260</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32">
-        <v>44874</v>
-      </c>
-      <c r="H43" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="33" t="s">
+      <c r="B43" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44728</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="4">
+        <v>44873</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5607,24 +5599,24 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" s="31">
-        <v>44672</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="32">
+      <c r="B44" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44260</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4">
         <v>44874</v>
       </c>
-      <c r="H44" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="33" t="s">
+      <c r="H44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5632,22 +5624,24 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" s="31">
-        <v>44571</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="32">
+      <c r="B45" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44672</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4">
         <v>44874</v>
       </c>
-      <c r="H45" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="33" t="s">
+      <c r="H45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5655,22 +5649,22 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="D46" s="31">
-        <v>44736</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="32">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44571</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4">
         <v>44874</v>
       </c>
-      <c r="H46" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="33" t="s">
+      <c r="H46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5678,24 +5672,22 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31">
-        <v>43323</v>
-      </c>
-      <c r="E47" s="34">
-        <v>44733</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="32">
-        <v>44875</v>
-      </c>
-      <c r="H47" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="33" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44736</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="4">
+        <v>44874</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5703,22 +5695,24 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31">
-        <v>44811</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="32">
+      <c r="B48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6">
+        <v>43323</v>
+      </c>
+      <c r="E48" s="8">
+        <v>44733</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="4">
         <v>44875</v>
       </c>
-      <c r="H48" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="33" t="s">
+      <c r="H48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5726,22 +5720,22 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31">
-        <v>44733</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="32">
-        <v>44876</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="33" t="s">
+      <c r="B49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6">
+        <v>44811</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="4">
+        <v>44875</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5749,22 +5743,22 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31">
-        <v>44740</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="32">
+      <c r="B50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6">
+        <v>44733</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4">
         <v>44876</v>
       </c>
-      <c r="H50" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="33" t="s">
+      <c r="H50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5772,22 +5766,22 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31">
+      <c r="B51" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="6">
         <v>44740</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="32">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="4">
         <v>44876</v>
       </c>
-      <c r="H51" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="33" t="s">
+      <c r="H51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5795,22 +5789,22 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31">
-        <v>44775</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="32">
+      <c r="B52" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="6">
+        <v>44740</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="4">
         <v>44876</v>
       </c>
-      <c r="H52" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="33" t="s">
+      <c r="H52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5818,22 +5812,22 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31">
-        <v>44749</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="32">
+      <c r="B53" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="6">
+        <v>44775</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4">
         <v>44876</v>
       </c>
-      <c r="H53" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="33" t="s">
+      <c r="H53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5841,22 +5835,22 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31">
-        <v>44777</v>
-      </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="32">
+      <c r="B54" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="6">
+        <v>44749</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="4">
         <v>44876</v>
       </c>
-      <c r="H54" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="33" t="s">
+      <c r="H54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5864,22 +5858,22 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31">
-        <v>44779</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="32">
+      <c r="B55" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="6">
+        <v>44777</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4">
         <v>44876</v>
       </c>
-      <c r="H55" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="33" t="s">
+      <c r="H55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5887,22 +5881,22 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31">
-        <v>44781</v>
-      </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="32">
-        <v>44877</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="33" t="s">
+      <c r="B56" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="6">
+        <v>44779</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="4">
+        <v>44876</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5910,22 +5904,22 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31">
-        <v>44785</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="32">
+      <c r="B57" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="6">
+        <v>44781</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="4">
         <v>44877</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="33" t="s">
+      <c r="H57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5933,24 +5927,22 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="31">
-        <v>44767</v>
-      </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="32">
+      <c r="B58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="6">
+        <v>44785</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="4">
         <v>44877</v>
       </c>
-      <c r="H58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="33" t="s">
+      <c r="H58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5958,24 +5950,24 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D59" s="31">
-        <v>44748</v>
-      </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="32">
+      <c r="B59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44767</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="4">
         <v>44877</v>
       </c>
-      <c r="H59" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="33" t="s">
+      <c r="H59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5983,22 +5975,24 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31">
-        <v>44625</v>
-      </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="32">
+      <c r="B60" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44748</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="4">
         <v>44877</v>
       </c>
-      <c r="H60" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="33" t="s">
+      <c r="H60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6006,24 +6000,22 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D61" s="31">
-        <v>44518</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="32">
+      <c r="B61" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="6">
+        <v>44625</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="4">
         <v>44877</v>
       </c>
-      <c r="H61" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="33" t="s">
+      <c r="H61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6031,24 +6023,24 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="D62" s="31">
-        <v>44606</v>
-      </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="32">
+      <c r="B62" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="6">
+        <v>44518</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="4">
         <v>44877</v>
       </c>
-      <c r="H62" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="33" t="s">
+      <c r="H62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6056,24 +6048,24 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="D63" s="31">
-        <v>44516</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="32">
+      <c r="B63" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44606</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="4">
         <v>44877</v>
       </c>
-      <c r="H63" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="33" t="s">
+      <c r="H63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6081,24 +6073,24 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D64" s="31">
-        <v>44708</v>
-      </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="32">
+      <c r="B64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44516</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="4">
         <v>44877</v>
       </c>
-      <c r="H64" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="33" t="s">
+      <c r="H64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6106,24 +6098,24 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="D65" s="31">
-        <v>44696</v>
-      </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="32">
+      <c r="B65" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="6">
+        <v>44708</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="4">
         <v>44877</v>
       </c>
-      <c r="H65" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="33" t="s">
+      <c r="H65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6131,24 +6123,24 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="D66" s="31">
-        <v>44051</v>
-      </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="32">
-        <v>44879</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="33" t="s">
+      <c r="B66" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44696</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="4">
+        <v>44877</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6156,24 +6148,24 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="D67" s="31">
-        <v>44522</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="32">
+      <c r="B67" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44051</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="4">
         <v>44879</v>
       </c>
-      <c r="H67" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="33" t="s">
+      <c r="H67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6181,22 +6173,24 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="D68" s="31">
-        <v>44740</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="32">
+      <c r="B68" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="6">
+        <v>44522</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="4">
         <v>44879</v>
       </c>
-      <c r="H68" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="33" t="s">
+      <c r="H68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6204,22 +6198,45 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44740</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="4">
+        <v>44879</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D70" s="6">
         <v>44740</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="32">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="4">
         <v>44879</v>
       </c>
-      <c r="H69" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="33" t="s">
+      <c r="H70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>10</v>
       </c>
     </row>
